--- a/配置表/z自我检测题库.xlsx
+++ b/配置表/z自我检测题库.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\wechat_game\wechat_game_medicine\配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\养生大师\wechat_game_medicine\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="104">
   <si>
     <t>字段说明</t>
   </si>
@@ -91,80 +91,269 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到40个左右题目的范围内1+1=</t>
-  </si>
-  <si>
-    <t>[8字符以内答案2,8字符以内答案4,8字符以内答案3,8字符以内答案5]</t>
-  </si>
-  <si>
     <t>得分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[-1,0,1,2]</t>
+    <t>float[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到41个左右题目的范围内2+1=</t>
-  </si>
-  <si>
-    <t>[8字符以内答案3,8字符以内答案5,8字符以内答案4,8字符以内答案6]</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到42个左右题目的范围内3+1=</t>
-  </si>
-  <si>
-    <t>[8字符以内答案4,8字符以内答案6,8字符以内答案5,8字符以内答案7]</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到43个左右题目的范围内4+1=</t>
-  </si>
-  <si>
-    <t>[8字符以内答案5,8字符以内答案7,8字符以内答案6,8字符以内答案8]</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到44个左右题目的范围内5+1=</t>
-  </si>
-  <si>
-    <t>[8字符以内答案6,8字符以内答案8,8字符以内答案7,8字符以内答案9]</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到45个左右题目的范围内6+1=</t>
-  </si>
-  <si>
-    <t>[8字符以内答案7,8字符以内答案9,8字符以内答案8,8字符以内答案10]</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到46个左右题目的范围内7+1=</t>
-  </si>
-  <si>
-    <t>[8字符以内答案8,8字符以内答案10,8字符以内答案9,8字符以内答案11]</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到47个左右题目的范围内8+1=</t>
-  </si>
-  <si>
-    <t>[8字符以内答案9,8字符以内答案11,8字符以内答案10,8字符以内答案12]</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到48个左右题目的范围内9+1=</t>
-  </si>
-  <si>
-    <t>[8字符以内答案10,8字符以内答案12,8字符以内答案11,8字符以内答案13]</t>
-  </si>
-  <si>
-    <t>前面一堆无用的字都是在凑数，为的是把字数凑到49个左右题目的范围内10+1=</t>
-  </si>
-  <si>
-    <t>[8字符以内答案11,8字符以内答案13,8字符以内答案12,8字符以内答案14]</t>
+    <t>(1)您容易疲乏吗？</t>
+  </si>
+  <si>
+    <t>(2)您容易气短(呼吸短促，接不上气)吗？</t>
+  </si>
+  <si>
+    <t>(3)您容易心慌吗？</t>
+  </si>
+  <si>
+    <t>(4)您容易头晕或站起时晕眩吗？</t>
+  </si>
+  <si>
+    <t>(5)您比别人容易患感冒吗?</t>
+  </si>
+  <si>
+    <t>(6)您喜欢安静、懒得说话吗?</t>
+  </si>
+  <si>
+    <t>(7)您说话声音低弱无力吗?</t>
+  </si>
+  <si>
+    <t>(8)您活动量稍大就容易出虚汗吗?</t>
+  </si>
+  <si>
+    <t>[没有(根本不),很少(有一点),有时(有些),经常(相当),总是(非常)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)您手脚发凉吗?</t>
+  </si>
+  <si>
+    <t>(2)您胃脘部、背部或腰膝部怕冷吗？</t>
+  </si>
+  <si>
+    <t>(3)您感到怕冷、衣服比别人穿得多吗?</t>
+  </si>
+  <si>
+    <t>(4)您比一般人耐受不了寒冷(冬天的寒冷，夏天的冷空调、电扇等)吗？</t>
+  </si>
+  <si>
+    <t>(6)您吃(喝)凉的东西会感到不舒服或者怕吃(喝)凉的东西吗？</t>
+  </si>
+  <si>
+    <t>(7)您受凉或吃(喝)凉的东西后，容易腹泻(拉肚子)吗?</t>
+  </si>
+  <si>
+    <t>(1) 您感到手脚心发热吗?</t>
+  </si>
+  <si>
+    <t>(2)您感觉身体、脸上发热吗？</t>
+  </si>
+  <si>
+    <t>(3)您皮肤或口唇干吗?</t>
+  </si>
+  <si>
+    <t>(4)您口唇的颜色比一般人红吗?</t>
+  </si>
+  <si>
+    <t>(5)您容易便秘或大便干燥吗?</t>
+  </si>
+  <si>
+    <t>(6)您面部两颧潮红或偏红吗?</t>
+  </si>
+  <si>
+    <t>(7)您感到眼睛干涩吗？</t>
+  </si>
+  <si>
+    <t>(8)您感到口干咽燥、总想喝水吗？</t>
+  </si>
+  <si>
+    <t>(1)您感到胸闷或腹部胀满吗？</t>
+  </si>
+  <si>
+    <t>(2)您感到身体沉重不轻松或不爽快吗?</t>
+  </si>
+  <si>
+    <t>(3)您腹部肥满松软吗?</t>
+  </si>
+  <si>
+    <t>(4)您有额部油脂分泌多的现象吗?</t>
+  </si>
+  <si>
+    <t>(6)您嘴里有黏黏的感觉吗?</t>
+  </si>
+  <si>
+    <t>(7)您平时痰多，特别是咽喉部总感到有痰堵着吗?</t>
+  </si>
+  <si>
+    <t>(8)您舌苔厚腻或有舌苔厚厚的感觉吗?</t>
+  </si>
+  <si>
+    <t>(5)您上眼睑比别人肿（上眼睑有轻微隆起的现象）吗?</t>
+  </si>
+  <si>
+    <t>(1)您面部或鼻部有油腻感或者油亮发光吗?</t>
+  </si>
+  <si>
+    <t>(2)您易生痤疮或疮疖吗?</t>
+  </si>
+  <si>
+    <t>(3)您感到口苦或嘴里有异味吗?</t>
+  </si>
+  <si>
+    <t>(4)您大便黏滞不爽、有解不尽的感觉吗?</t>
+  </si>
+  <si>
+    <t>(5)您小便时尿道有发热感、尿色浓(深)吗？</t>
+  </si>
+  <si>
+    <t>(6)女/您带下色黄(白带颜色发黄)吗?// 男/您的阴囊部位潮湿吗?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)您的皮肤在不知不觉中会出现青紫瘀斑(皮下出血)吗?</t>
+  </si>
+  <si>
+    <t>(2)您两颧部有细微红丝吗?</t>
+  </si>
+  <si>
+    <t>(3)您身体上有哪里疼痛吗？</t>
+  </si>
+  <si>
+    <t>(4)您面色晦黯、或容易出现褐斑吗?</t>
+  </si>
+  <si>
+    <t>(5)您容易有黑眼圈吗?</t>
+  </si>
+  <si>
+    <t>(6)您容易忘事（健忘）吗？</t>
+  </si>
+  <si>
+    <t>(7)您口唇颜色偏黯吗?</t>
+  </si>
+  <si>
+    <t>(1)您感到闷闷不乐、情绪低沉吗?</t>
+  </si>
+  <si>
+    <t>(2)您容易精神紧张、焦虑不安吗?</t>
+  </si>
+  <si>
+    <t>(3)您多愁善感、感情脆弱吗？</t>
+  </si>
+  <si>
+    <t>(4)您容易感到害怕或受到惊吓吗?</t>
+  </si>
+  <si>
+    <t>(5)您胁肋部或乳房胀痛吗?</t>
+  </si>
+  <si>
+    <t>(6)您无缘无故叹气吗?</t>
+  </si>
+  <si>
+    <t>(7)您咽喉部有异物感，且吐之不出、咽之不下吗？</t>
+  </si>
+  <si>
+    <t>(1)您没有感冒时也会打喷嚏吗？</t>
+  </si>
+  <si>
+    <t>(2)您没有感冒时也会鼻塞、流鼻涕吗?</t>
+  </si>
+  <si>
+    <t>(3)您有因季节变化、温度变化或异味等原因而咳喘的现象吗？</t>
+  </si>
+  <si>
+    <t>(4)您容易过敏(对药物、食物、气味、花粉或在季节交替、气候变化时)吗?</t>
+  </si>
+  <si>
+    <t>(5)您的皮肤容易起荨麻疹(风团、风疹块、风疙瘩)吗?</t>
+  </si>
+  <si>
+    <t>(6)您的皮肤因过敏出现过紫癜(紫红色瘀点、瘀斑)吗?</t>
+  </si>
+  <si>
+    <t>(7)您的皮肤一抓就红，并出现抓痕吗?</t>
+  </si>
+  <si>
+    <t>(1)您精力充沛吗？</t>
+  </si>
+  <si>
+    <t>(2)您容易疲乏吗？*</t>
+  </si>
+  <si>
+    <t>(3)您说话声音低弱无力吗?*</t>
+  </si>
+  <si>
+    <t>(4)您感到闷闷不乐、情绪低沉吗?*</t>
+  </si>
+  <si>
+    <t>(5)您比一般人耐受不了寒冷(冬天的寒冷，夏天的冷空调、电扇等)吗？*</t>
+  </si>
+  <si>
+    <t>(6)您能适应外界自然和社会环境的变化吗？</t>
+  </si>
+  <si>
+    <t>(7)您容易失眠吗？*</t>
+  </si>
+  <si>
+    <t>(8)您容易忘事（健忘）吗*</t>
+  </si>
+  <si>
+    <t>[0,3.125,6.25,9.375,12.5]</t>
+  </si>
+  <si>
+    <t>[0,3.57,7.14,10.71,14.28]</t>
+  </si>
+  <si>
+    <t>[0,3.57,7.14,10.71,14.29]</t>
+  </si>
+  <si>
+    <t>[0,3.57,7.14,10.71,14.30]</t>
+  </si>
+  <si>
+    <t>[0,3.57,7.14,10.71,14.31]</t>
+  </si>
+  <si>
+    <t>[0,3.57,7.14,10.71,14.32]</t>
+  </si>
+  <si>
+    <t>[0,3.57,7.14,10.71,14.33]</t>
+  </si>
+  <si>
+    <t>[0,3.57,7.14,10.71,14.34]</t>
+  </si>
+  <si>
+    <t>[0,3.125,6.25,9.375,12.5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,4.17,8.34,12.51,16.68]</t>
+  </si>
+  <si>
+    <t>[0,4.17,8.34,12.51,16.69]</t>
+  </si>
+  <si>
+    <t>[0,4.17,8.34,12.51,16.70]</t>
+  </si>
+  <si>
+    <t>[0,4.17,8.34,12.51,16.71]</t>
+  </si>
+  <si>
+    <t>[0,4.17,8.34,12.51,16.72]</t>
+  </si>
+  <si>
+    <t>[0,4.17,8.34,12.51,16.73]</t>
+  </si>
+  <si>
+    <t>[0,3.13,6.26,9.39,12.52]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[12.52,9.39,6.26,3.13,0]</t>
   </si>
 </sst>
 </file>
@@ -210,13 +399,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,7 +693,7 @@
   <dimension ref="A1:H604"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G4"/>
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -509,10 +701,10 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="64.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.25" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -535,7 +727,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -558,7 +750,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -581,7 +773,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -604,7 +796,7 @@
         <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -612,16 +804,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -629,16 +821,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -647,16 +839,16 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -665,16 +857,16 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -683,16 +875,16 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -701,16 +893,16 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -719,16 +911,16 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -737,16 +929,16 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -755,16 +947,16 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -773,344 +965,1111 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="2">
+        <v>3</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B25">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="E25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B26">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="2">
+        <v>3</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27">
         <v>23</v>
       </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F15"/>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F16"/>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F17"/>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F18"/>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F19"/>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F20"/>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F21"/>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F22"/>
-      <c r="G22"/>
-    </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F23"/>
-      <c r="G23"/>
-    </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F24"/>
-      <c r="G24"/>
-    </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F25"/>
-      <c r="G25"/>
-    </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F26"/>
-      <c r="G26"/>
-    </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F27"/>
-      <c r="G27"/>
-    </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F28"/>
-      <c r="G28"/>
-    </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F29"/>
-      <c r="G29"/>
-    </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F30"/>
-      <c r="G30"/>
-    </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F31"/>
-      <c r="G31"/>
-    </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F32"/>
-      <c r="G32"/>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F33"/>
-      <c r="G33"/>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F34"/>
-      <c r="G34"/>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F35"/>
-      <c r="G35"/>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F36"/>
-      <c r="G36"/>
-    </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F37"/>
-      <c r="G37"/>
-    </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F38"/>
-      <c r="G38"/>
-    </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F39"/>
-      <c r="G39"/>
-    </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F40"/>
-      <c r="G40"/>
-    </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F41"/>
-      <c r="G41"/>
-    </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F42"/>
-      <c r="G42"/>
-    </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F43"/>
-      <c r="G43"/>
-    </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F44"/>
-      <c r="G44"/>
-    </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F45"/>
-      <c r="G45"/>
-    </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F46"/>
-      <c r="G46"/>
-    </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F47"/>
-      <c r="G47"/>
-    </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F48"/>
-      <c r="G48"/>
-    </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F49"/>
-      <c r="G49"/>
-    </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F50"/>
-      <c r="G50"/>
-    </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F51"/>
-      <c r="G51"/>
-    </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F52"/>
-      <c r="G52"/>
-    </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F53"/>
-      <c r="G53"/>
-    </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F54"/>
-      <c r="G54"/>
-    </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F55"/>
-      <c r="G55"/>
-    </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F56"/>
-      <c r="G56"/>
-    </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F57"/>
-      <c r="G57"/>
-    </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F58"/>
-      <c r="G58"/>
-    </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F59"/>
-      <c r="G59"/>
-    </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F60"/>
-      <c r="G60"/>
-    </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F61"/>
-      <c r="G61"/>
-    </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F62"/>
-      <c r="G62"/>
-    </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F63"/>
-      <c r="G63"/>
-    </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F64"/>
-      <c r="G64"/>
-    </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F65"/>
-      <c r="G65"/>
-    </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F66"/>
-      <c r="G66"/>
-    </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F67"/>
-      <c r="G67"/>
-    </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F68"/>
-      <c r="G68"/>
-    </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F69"/>
-      <c r="G69"/>
-    </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.15">
-      <c r="F70"/>
-      <c r="G70"/>
-    </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="2">
+        <v>3</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B28">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="2">
+        <v>4</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="2">
+        <v>4</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="2">
+        <v>4</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B31">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="2">
+        <v>4</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B32">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="2">
+        <v>4</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="2">
+        <v>4</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="2">
+        <v>4</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="2">
+        <v>4</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="2">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="2">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="2">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="2">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="2">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B41">
+        <v>37</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="2">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B42">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="2">
+        <v>6</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B43">
+        <v>39</v>
+      </c>
+      <c r="C43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="2">
+        <v>6</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B44">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="2">
+        <v>6</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B45">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="2">
+        <v>6</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B46">
+        <v>42</v>
+      </c>
+      <c r="C46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="2">
+        <v>6</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B47">
+        <v>43</v>
+      </c>
+      <c r="C47" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="2">
+        <v>6</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B48">
+        <v>44</v>
+      </c>
+      <c r="C48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="2">
+        <v>6</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B49">
+        <v>45</v>
+      </c>
+      <c r="C49" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="2">
+        <v>7</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B50">
+        <v>46</v>
+      </c>
+      <c r="C50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="2">
+        <v>7</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B51">
+        <v>47</v>
+      </c>
+      <c r="C51" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="2">
+        <v>7</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B52">
+        <v>48</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="2">
+        <v>7</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B53">
+        <v>49</v>
+      </c>
+      <c r="C53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="2">
+        <v>7</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B54">
+        <v>50</v>
+      </c>
+      <c r="C54" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="2">
+        <v>7</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B55">
+        <v>51</v>
+      </c>
+      <c r="C55" t="s">
+        <v>71</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="2">
+        <v>7</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B56">
+        <v>52</v>
+      </c>
+      <c r="C56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="2">
+        <v>8</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B57">
+        <v>53</v>
+      </c>
+      <c r="C57" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="2">
+        <v>8</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B58">
+        <v>54</v>
+      </c>
+      <c r="C58" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="2">
+        <v>8</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B59">
+        <v>55</v>
+      </c>
+      <c r="C59" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" s="2">
+        <v>8</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B60">
+        <v>56</v>
+      </c>
+      <c r="C60" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="2">
+        <v>8</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B61">
+        <v>57</v>
+      </c>
+      <c r="C61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="2">
+        <v>8</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B62">
+        <v>58</v>
+      </c>
+      <c r="C62" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="2">
+        <v>8</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B63">
+        <v>59</v>
+      </c>
+      <c r="C63" t="s">
+        <v>79</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="2">
+        <v>9</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B64">
+        <v>60</v>
+      </c>
+      <c r="C64" t="s">
+        <v>80</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="2">
+        <v>9</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B65">
+        <v>61</v>
+      </c>
+      <c r="C65" t="s">
+        <v>81</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="2">
+        <v>9</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B66">
+        <v>62</v>
+      </c>
+      <c r="C66" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="2">
+        <v>9</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B67">
+        <v>63</v>
+      </c>
+      <c r="C67" t="s">
+        <v>83</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="2">
+        <v>9</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B68">
+        <v>64</v>
+      </c>
+      <c r="C68" t="s">
+        <v>84</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" s="2">
+        <v>9</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B69">
+        <v>65</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="2">
+        <v>9</v>
+      </c>
+      <c r="G69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B70">
+        <v>66</v>
+      </c>
+      <c r="C70" t="s">
+        <v>86</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="2">
+        <v>9</v>
+      </c>
+      <c r="G70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B71">
+        <v>67</v>
+      </c>
       <c r="F71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B72">
+        <v>68</v>
+      </c>
       <c r="F72"/>
       <c r="G72"/>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B73">
+        <v>69</v>
+      </c>
       <c r="F73"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B74">
+        <v>70</v>
+      </c>
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B75">
+        <v>71</v>
+      </c>
       <c r="F75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B76">
+        <v>72</v>
+      </c>
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B77">
+        <v>73</v>
+      </c>
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B78">
+        <v>74</v>
+      </c>
       <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B79">
+        <v>75</v>
+      </c>
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B80">
+        <v>76</v>
+      </c>
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B81">
+        <v>77</v>
+      </c>
       <c r="F81"/>
       <c r="G81"/>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B82">
+        <v>78</v>
+      </c>
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B83">
+        <v>79</v>
+      </c>
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F84"/>
       <c r="G84"/>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F96"/>
       <c r="G96"/>
     </row>
